--- a/1_Reunion/diagramaGantt.xlsx
+++ b/1_Reunion/diagramaGantt.xlsx
@@ -357,10 +357,10 @@
                   <c:v>42114</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42126</c:v>
+                  <c:v>42111</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42154</c:v>
+                  <c:v>42111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,35 +503,35 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="77528448"/>
-        <c:axId val="79115392"/>
+        <c:axId val="81010048"/>
+        <c:axId val="81024128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77528448"/>
+        <c:axId val="81010048"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79115392"/>
+        <c:crossAx val="81024128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79115392"/>
+        <c:axId val="81024128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42180"/>
@@ -552,7 +552,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77528448"/>
+        <c:crossAx val="81010048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -565,7 +565,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1172,14 +1172,14 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>42126</v>
+        <v>42111</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2">
         <f>B19+C19</f>
-        <v>42154</v>
+        <v>42161</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1187,10 +1187,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>42154</v>
+        <v>42111</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2">
         <f>B20+C20</f>
